--- a/Data/bible_books.xlsx
+++ b/Data/bible_books.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21915"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5896e1b568e196aa/Desktop/personal/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCB218D0-FC93-4582-9B35-6FAD97DC93F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{BCB218D0-FC93-4582-9B35-6FAD97DC93F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E80E68E0-E942-4E60-894E-1D130DA2F4FC}"/>
   <bookViews>
     <workbookView xWindow="3852" yWindow="2088" windowWidth="20304" windowHeight="13236" xr2:uid="{0E172CC6-8D69-45A2-85F8-E8DC5B69423B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,6 +33,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>book_name</t>
+  </si>
+  <si>
     <t>Genesis</t>
   </si>
   <si>
@@ -231,19 +235,13 @@
   </si>
   <si>
     <t>Revelation</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>book</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,549 +589,548 @@
   <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
